--- a/中原放盤.xlsx
+++ b/中原放盤.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL11"/>
+  <dimension ref="A1:AL12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1804,6 +1804,124 @@
       </c>
       <c r="AL11" t="n">
         <v>2476</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2023-08-11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>39830</v>
+      </c>
+      <c r="C12" t="n">
+        <v>4</v>
+      </c>
+      <c r="D12" t="n">
+        <v>96</v>
+      </c>
+      <c r="E12" t="n">
+        <v>495</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1951</v>
+      </c>
+      <c r="G12" t="n">
+        <v>4079</v>
+      </c>
+      <c r="H12" t="n">
+        <v>5237</v>
+      </c>
+      <c r="I12" t="n">
+        <v>4733</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3908</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3441</v>
+      </c>
+      <c r="L12" t="n">
+        <v>2610</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1755</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1534</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1238</v>
+      </c>
+      <c r="P12" t="n">
+        <v>987</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>818</v>
+      </c>
+      <c r="R12" t="n">
+        <v>635</v>
+      </c>
+      <c r="S12" t="n">
+        <v>599</v>
+      </c>
+      <c r="T12" t="n">
+        <v>500</v>
+      </c>
+      <c r="U12" t="n">
+        <v>426</v>
+      </c>
+      <c r="V12" t="n">
+        <v>395</v>
+      </c>
+      <c r="W12" t="n">
+        <v>4389</v>
+      </c>
+      <c r="X12" t="n">
+        <v>370</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>3246</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>5892</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>8190</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>6977</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>4206</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>3093</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>1879</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>1386</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>4591</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>1913</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>4745</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>16593</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>13474</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>2481</v>
       </c>
     </row>
   </sheetData>
@@ -1817,7 +1935,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2462,6 +2580,61 @@
         <v>790</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2023-08-11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>13086</v>
+      </c>
+      <c r="C12" t="n">
+        <v>97</v>
+      </c>
+      <c r="D12" t="n">
+        <v>976</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2061</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2850</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2127</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1295</v>
+      </c>
+      <c r="I12" t="n">
+        <v>953</v>
+      </c>
+      <c r="J12" t="n">
+        <v>620</v>
+      </c>
+      <c r="K12" t="n">
+        <v>498</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1609</v>
+      </c>
+      <c r="M12" t="n">
+        <v>565</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1462</v>
+      </c>
+      <c r="O12" t="n">
+        <v>5939</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4146</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>789</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/中原放盤.xlsx
+++ b/中原放盤.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL17"/>
+  <dimension ref="A1:AL18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2512,6 +2512,124 @@
       </c>
       <c r="AL17" t="n">
         <v>2477</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>39988</v>
+      </c>
+      <c r="C18" t="n">
+        <v>3</v>
+      </c>
+      <c r="D18" t="n">
+        <v>98</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>3449</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2619</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1760</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1232</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>815</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>603</v>
+      </c>
+      <c r="T18" t="n">
+        <v>503</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>396</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>370</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>3247</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>5919</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>8232</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>7012</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>4233</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>3098</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>1881</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>1385</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>1923</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>16670</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>13550</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>2485</v>
       </c>
     </row>
   </sheetData>
@@ -2525,7 +2643,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3500,6 +3618,61 @@
         <v>783</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2023-08-17</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>98</v>
+      </c>
+      <c r="D18" t="n">
+        <v>966</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2035</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1264</v>
+      </c>
+      <c r="I18" t="n">
+        <v>924</v>
+      </c>
+      <c r="J18" t="n">
+        <v>628</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>572</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1446</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>783</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/中原放盤.xlsx
+++ b/中原放盤.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL59"/>
+  <dimension ref="A1:AL60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7468,6 +7468,124 @@
       </c>
       <c r="AL59" t="n">
         <v>2485</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>40247</v>
+      </c>
+      <c r="C60" t="n">
+        <v>3</v>
+      </c>
+      <c r="D60" t="n">
+        <v>110</v>
+      </c>
+      <c r="E60" t="n">
+        <v>529</v>
+      </c>
+      <c r="F60" t="n">
+        <v>2092</v>
+      </c>
+      <c r="G60" t="n">
+        <v>4336</v>
+      </c>
+      <c r="H60" t="n">
+        <v>5340</v>
+      </c>
+      <c r="I60" t="n">
+        <v>4754</v>
+      </c>
+      <c r="J60" t="n">
+        <v>3930</v>
+      </c>
+      <c r="K60" t="n">
+        <v>3426</v>
+      </c>
+      <c r="L60" t="n">
+        <v>2623</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1712</v>
+      </c>
+      <c r="N60" t="n">
+        <v>1540</v>
+      </c>
+      <c r="O60" t="n">
+        <v>1219</v>
+      </c>
+      <c r="P60" t="n">
+        <v>946</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>809</v>
+      </c>
+      <c r="R60" t="n">
+        <v>644</v>
+      </c>
+      <c r="S60" t="n">
+        <v>596</v>
+      </c>
+      <c r="T60" t="n">
+        <v>500</v>
+      </c>
+      <c r="U60" t="n">
+        <v>420</v>
+      </c>
+      <c r="V60" t="n">
+        <v>398</v>
+      </c>
+      <c r="W60" t="n">
+        <v>4320</v>
+      </c>
+      <c r="X60" t="n">
+        <v>372</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>3298</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>6035</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>8307</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>7033</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>4215</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>3094</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>1880</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>1404</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>4609</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>1978</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>4863</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>16855</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>13552</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>2480</v>
       </c>
     </row>
   </sheetData>
@@ -7481,7 +7599,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q59"/>
+  <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10766,6 +10884,61 @@
         <v>765</v>
       </c>
     </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>11973</v>
+      </c>
+      <c r="C60" t="n">
+        <v>66</v>
+      </c>
+      <c r="D60" t="n">
+        <v>842</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1921</v>
+      </c>
+      <c r="F60" t="n">
+        <v>2552</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1925</v>
+      </c>
+      <c r="H60" t="n">
+        <v>1147</v>
+      </c>
+      <c r="I60" t="n">
+        <v>834</v>
+      </c>
+      <c r="J60" t="n">
+        <v>593</v>
+      </c>
+      <c r="K60" t="n">
+        <v>475</v>
+      </c>
+      <c r="L60" t="n">
+        <v>1618</v>
+      </c>
+      <c r="M60" t="n">
+        <v>542</v>
+      </c>
+      <c r="N60" t="n">
+        <v>1310</v>
+      </c>
+      <c r="O60" t="n">
+        <v>5381</v>
+      </c>
+      <c r="P60" t="n">
+        <v>11973</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>761</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/中原放盤.xlsx
+++ b/中原放盤.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL69"/>
+  <dimension ref="A1:AL70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8648,6 +8648,124 @@
       </c>
       <c r="AL69" t="n">
         <v>2466</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2023-10-08</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>40164</v>
+      </c>
+      <c r="C70" t="n">
+        <v>3</v>
+      </c>
+      <c r="D70" t="n">
+        <v>115</v>
+      </c>
+      <c r="E70" t="n">
+        <v>537</v>
+      </c>
+      <c r="F70" t="n">
+        <v>2113</v>
+      </c>
+      <c r="G70" t="n">
+        <v>4320</v>
+      </c>
+      <c r="H70" t="n">
+        <v>5357</v>
+      </c>
+      <c r="I70" t="n">
+        <v>4745</v>
+      </c>
+      <c r="J70" t="n">
+        <v>3868</v>
+      </c>
+      <c r="K70" t="n">
+        <v>3394</v>
+      </c>
+      <c r="L70" t="n">
+        <v>2640</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1706</v>
+      </c>
+      <c r="N70" t="n">
+        <v>1531</v>
+      </c>
+      <c r="O70" t="n">
+        <v>1224</v>
+      </c>
+      <c r="P70" t="n">
+        <v>945</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>795</v>
+      </c>
+      <c r="R70" t="n">
+        <v>656</v>
+      </c>
+      <c r="S70" t="n">
+        <v>596</v>
+      </c>
+      <c r="T70" t="n">
+        <v>502</v>
+      </c>
+      <c r="U70" t="n">
+        <v>419</v>
+      </c>
+      <c r="V70" t="n">
+        <v>401</v>
+      </c>
+      <c r="W70" t="n">
+        <v>4297</v>
+      </c>
+      <c r="X70" t="n">
+        <v>370</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>3273</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>6045</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>8287</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>6998</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>4197</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>40164</v>
+      </c>
+      <c r="AE70" t="n">
+        <v>3098</v>
+      </c>
+      <c r="AF70" t="n">
+        <v>1418</v>
+      </c>
+      <c r="AG70" t="n">
+        <v>4607</v>
+      </c>
+      <c r="AH70" t="n">
+        <v>1975</v>
+      </c>
+      <c r="AI70" t="n">
+        <v>4866</v>
+      </c>
+      <c r="AJ70" t="n">
+        <v>16806</v>
+      </c>
+      <c r="AK70" t="n">
+        <v>13548</v>
+      </c>
+      <c r="AL70" t="n">
+        <v>40164</v>
       </c>
     </row>
   </sheetData>
@@ -8661,7 +8779,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q69"/>
+  <dimension ref="A1:Q70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12496,6 +12614,61 @@
         <v>765</v>
       </c>
     </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2023-10-08</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>11921</v>
+      </c>
+      <c r="C70" t="n">
+        <v>64</v>
+      </c>
+      <c r="D70" t="n">
+        <v>866</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1909</v>
+      </c>
+      <c r="F70" t="n">
+        <v>9082</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1908</v>
+      </c>
+      <c r="H70" t="n">
+        <v>1124</v>
+      </c>
+      <c r="I70" t="n">
+        <v>820</v>
+      </c>
+      <c r="J70" t="n">
+        <v>568</v>
+      </c>
+      <c r="K70" t="n">
+        <v>478</v>
+      </c>
+      <c r="L70" t="n">
+        <v>1635</v>
+      </c>
+      <c r="M70" t="n">
+        <v>551</v>
+      </c>
+      <c r="N70" t="n">
+        <v>1317</v>
+      </c>
+      <c r="O70" t="n">
+        <v>5336</v>
+      </c>
+      <c r="P70" t="n">
+        <v>3834</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>768</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/中原放盤.xlsx
+++ b/中原放盤.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL70"/>
+  <dimension ref="A1:AL71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8766,6 +8766,124 @@
       </c>
       <c r="AL70" t="n">
         <v>40164</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2023-10-09</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>40106</v>
+      </c>
+      <c r="C71" t="n">
+        <v>3</v>
+      </c>
+      <c r="D71" t="n">
+        <v>114</v>
+      </c>
+      <c r="E71" t="n">
+        <v>535</v>
+      </c>
+      <c r="F71" t="n">
+        <v>2109</v>
+      </c>
+      <c r="G71" t="n">
+        <v>4317</v>
+      </c>
+      <c r="H71" t="n">
+        <v>5353</v>
+      </c>
+      <c r="I71" t="n">
+        <v>4734</v>
+      </c>
+      <c r="J71" t="n">
+        <v>3861</v>
+      </c>
+      <c r="K71" t="n">
+        <v>3387</v>
+      </c>
+      <c r="L71" t="n">
+        <v>2638</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1703</v>
+      </c>
+      <c r="N71" t="n">
+        <v>1530</v>
+      </c>
+      <c r="O71" t="n">
+        <v>1221</v>
+      </c>
+      <c r="P71" t="n">
+        <v>945</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>795</v>
+      </c>
+      <c r="R71" t="n">
+        <v>655</v>
+      </c>
+      <c r="S71" t="n">
+        <v>596</v>
+      </c>
+      <c r="T71" t="n">
+        <v>501</v>
+      </c>
+      <c r="U71" t="n">
+        <v>418</v>
+      </c>
+      <c r="V71" t="n">
+        <v>398</v>
+      </c>
+      <c r="W71" t="n">
+        <v>4293</v>
+      </c>
+      <c r="X71" t="n">
+        <v>367</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>3270</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>6029</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>8273</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>6990</v>
+      </c>
+      <c r="AC71" t="n">
+        <v>4194</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>3097</v>
+      </c>
+      <c r="AE71" t="n">
+        <v>1867</v>
+      </c>
+      <c r="AF71" t="n">
+        <v>1415</v>
+      </c>
+      <c r="AG71" t="n">
+        <v>4604</v>
+      </c>
+      <c r="AH71" t="n">
+        <v>1967</v>
+      </c>
+      <c r="AI71" t="n">
+        <v>4863</v>
+      </c>
+      <c r="AJ71" t="n">
+        <v>16779</v>
+      </c>
+      <c r="AK71" t="n">
+        <v>13544</v>
+      </c>
+      <c r="AL71" t="n">
+        <v>2464</v>
       </c>
     </row>
   </sheetData>
@@ -8779,7 +8897,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q70"/>
+  <dimension ref="A1:Q71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12669,6 +12787,61 @@
         <v>768</v>
       </c>
     </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2023-10-09</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>11854</v>
+      </c>
+      <c r="C71" t="n">
+        <v>63</v>
+      </c>
+      <c r="D71" t="n">
+        <v>866</v>
+      </c>
+      <c r="E71" t="n">
+        <v>1889</v>
+      </c>
+      <c r="F71" t="n">
+        <v>2537</v>
+      </c>
+      <c r="G71" t="n">
+        <v>1897</v>
+      </c>
+      <c r="H71" t="n">
+        <v>1113</v>
+      </c>
+      <c r="I71" t="n">
+        <v>817</v>
+      </c>
+      <c r="J71" t="n">
+        <v>568</v>
+      </c>
+      <c r="K71" t="n">
+        <v>474</v>
+      </c>
+      <c r="L71" t="n">
+        <v>1630</v>
+      </c>
+      <c r="M71" t="n">
+        <v>550</v>
+      </c>
+      <c r="N71" t="n">
+        <v>1305</v>
+      </c>
+      <c r="O71" t="n">
+        <v>5311</v>
+      </c>
+      <c r="P71" t="n">
+        <v>3807</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>769</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/中原放盤.xlsx
+++ b/中原放盤.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL103"/>
+  <dimension ref="A1:AL104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12660,6 +12660,124 @@
       </c>
       <c r="AL103" t="n">
         <v>2496</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2023-11-11</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>40589</v>
+      </c>
+      <c r="C104" t="n">
+        <v>2</v>
+      </c>
+      <c r="D104" t="n">
+        <v>121</v>
+      </c>
+      <c r="E104" t="n">
+        <v>568</v>
+      </c>
+      <c r="F104" t="n">
+        <v>2158</v>
+      </c>
+      <c r="G104" t="n">
+        <v>4474</v>
+      </c>
+      <c r="H104" t="n">
+        <v>5379</v>
+      </c>
+      <c r="I104" t="n">
+        <v>4725</v>
+      </c>
+      <c r="J104" t="n">
+        <v>3978</v>
+      </c>
+      <c r="K104" t="n">
+        <v>3458</v>
+      </c>
+      <c r="L104" t="n">
+        <v>2656</v>
+      </c>
+      <c r="M104" t="n">
+        <v>1704</v>
+      </c>
+      <c r="N104" t="n">
+        <v>1538</v>
+      </c>
+      <c r="O104" t="n">
+        <v>1267</v>
+      </c>
+      <c r="P104" t="n">
+        <v>958</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>794</v>
+      </c>
+      <c r="R104" t="n">
+        <v>679</v>
+      </c>
+      <c r="S104" t="n">
+        <v>590</v>
+      </c>
+      <c r="T104" t="n">
+        <v>487</v>
+      </c>
+      <c r="U104" t="n">
+        <v>412</v>
+      </c>
+      <c r="V104" t="n">
+        <v>395</v>
+      </c>
+      <c r="W104" t="n">
+        <v>4246</v>
+      </c>
+      <c r="X104" t="n">
+        <v>384</v>
+      </c>
+      <c r="Y104" t="n">
+        <v>3288</v>
+      </c>
+      <c r="Z104" t="n">
+        <v>6162</v>
+      </c>
+      <c r="AA104" t="n">
+        <v>8418</v>
+      </c>
+      <c r="AB104" t="n">
+        <v>7022</v>
+      </c>
+      <c r="AC104" t="n">
+        <v>4201</v>
+      </c>
+      <c r="AD104" t="n">
+        <v>3153</v>
+      </c>
+      <c r="AE104" t="n">
+        <v>7961</v>
+      </c>
+      <c r="AF104" t="n">
+        <v>1428</v>
+      </c>
+      <c r="AG104" t="n">
+        <v>4644</v>
+      </c>
+      <c r="AH104" t="n">
+        <v>2023</v>
+      </c>
+      <c r="AI104" t="n">
+        <v>4939</v>
+      </c>
+      <c r="AJ104" t="n">
+        <v>17058</v>
+      </c>
+      <c r="AK104" t="n">
+        <v>13641</v>
+      </c>
+      <c r="AL104" t="n">
+        <v>2490</v>
       </c>
     </row>
   </sheetData>
@@ -12673,7 +12791,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q103"/>
+  <dimension ref="A1:Q104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18378,6 +18496,61 @@
         <v>782</v>
       </c>
     </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2023-11-11</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>11742</v>
+      </c>
+      <c r="C104" t="n">
+        <v>69</v>
+      </c>
+      <c r="D104" t="n">
+        <v>851</v>
+      </c>
+      <c r="E104" t="n">
+        <v>1877</v>
+      </c>
+      <c r="F104" t="n">
+        <v>2459</v>
+      </c>
+      <c r="G104" t="n">
+        <v>1822</v>
+      </c>
+      <c r="H104" t="n">
+        <v>1110</v>
+      </c>
+      <c r="I104" t="n">
+        <v>856</v>
+      </c>
+      <c r="J104" t="n">
+        <v>583</v>
+      </c>
+      <c r="K104" t="n">
+        <v>482</v>
+      </c>
+      <c r="L104" t="n">
+        <v>1633</v>
+      </c>
+      <c r="M104" t="n">
+        <v>551</v>
+      </c>
+      <c r="N104" t="n">
+        <v>1256</v>
+      </c>
+      <c r="O104" t="n">
+        <v>5220</v>
+      </c>
+      <c r="P104" t="n">
+        <v>3843</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>778</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/中原放盤.xlsx
+++ b/中原放盤.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL151"/>
+  <dimension ref="A1:AL152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18324,6 +18324,124 @@
       </c>
       <c r="AL151" t="n">
         <v>2508</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>2023-12-29</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>40856</v>
+      </c>
+      <c r="C152" t="n">
+        <v>3</v>
+      </c>
+      <c r="D152" t="n">
+        <v>127</v>
+      </c>
+      <c r="E152" t="n">
+        <v>589</v>
+      </c>
+      <c r="F152" t="n">
+        <v>2322</v>
+      </c>
+      <c r="G152" t="n">
+        <v>4772</v>
+      </c>
+      <c r="H152" t="n">
+        <v>5308</v>
+      </c>
+      <c r="I152" t="n">
+        <v>4747</v>
+      </c>
+      <c r="J152" t="n">
+        <v>3986</v>
+      </c>
+      <c r="K152" t="n">
+        <v>3463</v>
+      </c>
+      <c r="L152" t="n">
+        <v>2636</v>
+      </c>
+      <c r="M152" t="n">
+        <v>1704</v>
+      </c>
+      <c r="N152" t="n">
+        <v>1466</v>
+      </c>
+      <c r="O152" t="n">
+        <v>1229</v>
+      </c>
+      <c r="P152" t="n">
+        <v>942</v>
+      </c>
+      <c r="Q152" t="n">
+        <v>798</v>
+      </c>
+      <c r="R152" t="n">
+        <v>641</v>
+      </c>
+      <c r="S152" t="n">
+        <v>589</v>
+      </c>
+      <c r="T152" t="n">
+        <v>517</v>
+      </c>
+      <c r="U152" t="n">
+        <v>403</v>
+      </c>
+      <c r="V152" t="n">
+        <v>384</v>
+      </c>
+      <c r="W152" t="n">
+        <v>40856</v>
+      </c>
+      <c r="X152" t="n">
+        <v>386</v>
+      </c>
+      <c r="Y152" t="n">
+        <v>3296</v>
+      </c>
+      <c r="Z152" t="n">
+        <v>6147</v>
+      </c>
+      <c r="AA152" t="n">
+        <v>8515</v>
+      </c>
+      <c r="AB152" t="n">
+        <v>7091</v>
+      </c>
+      <c r="AC152" t="n">
+        <v>4229</v>
+      </c>
+      <c r="AD152" t="n">
+        <v>3189</v>
+      </c>
+      <c r="AE152" t="n">
+        <v>1870</v>
+      </c>
+      <c r="AF152" t="n">
+        <v>1435</v>
+      </c>
+      <c r="AG152" t="n">
+        <v>4698</v>
+      </c>
+      <c r="AH152" t="n">
+        <v>2052</v>
+      </c>
+      <c r="AI152" t="n">
+        <v>5003</v>
+      </c>
+      <c r="AJ152" t="n">
+        <v>17165</v>
+      </c>
+      <c r="AK152" t="n">
+        <v>13734</v>
+      </c>
+      <c r="AL152" t="n">
+        <v>2504</v>
       </c>
     </row>
   </sheetData>
@@ -18337,7 +18455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q151"/>
+  <dimension ref="A1:Q152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26682,6 +26800,61 @@
         <v>698</v>
       </c>
     </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>2023-12-29</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>10947</v>
+      </c>
+      <c r="C152" t="n">
+        <v>59</v>
+      </c>
+      <c r="D152" t="n">
+        <v>836</v>
+      </c>
+      <c r="E152" t="n">
+        <v>1678</v>
+      </c>
+      <c r="F152" t="n">
+        <v>2354</v>
+      </c>
+      <c r="G152" t="n">
+        <v>1682</v>
+      </c>
+      <c r="H152" t="n">
+        <v>1048</v>
+      </c>
+      <c r="I152" t="n">
+        <v>837</v>
+      </c>
+      <c r="J152" t="n">
+        <v>523</v>
+      </c>
+      <c r="K152" t="n">
+        <v>412</v>
+      </c>
+      <c r="L152" t="n">
+        <v>1518</v>
+      </c>
+      <c r="M152" t="n">
+        <v>497</v>
+      </c>
+      <c r="N152" t="n">
+        <v>1218</v>
+      </c>
+      <c r="O152" t="n">
+        <v>4809</v>
+      </c>
+      <c r="P152" t="n">
+        <v>3636</v>
+      </c>
+      <c r="Q152" t="n">
+        <v>701</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/中原放盤.xlsx
+++ b/中原放盤.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL162"/>
+  <dimension ref="A1:AL163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19622,6 +19622,124 @@
       </c>
       <c r="AL162" t="n">
         <v>2460</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>2024-01-09</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>40608</v>
+      </c>
+      <c r="C163" t="n">
+        <v>4</v>
+      </c>
+      <c r="D163" t="n">
+        <v>127</v>
+      </c>
+      <c r="E163" t="n">
+        <v>611</v>
+      </c>
+      <c r="F163" t="n">
+        <v>2366</v>
+      </c>
+      <c r="G163" t="n">
+        <v>4795</v>
+      </c>
+      <c r="H163" t="n">
+        <v>5275</v>
+      </c>
+      <c r="I163" t="n">
+        <v>4685</v>
+      </c>
+      <c r="J163" t="n">
+        <v>3995</v>
+      </c>
+      <c r="K163" t="n">
+        <v>3441</v>
+      </c>
+      <c r="L163" t="n">
+        <v>2611</v>
+      </c>
+      <c r="M163" t="n">
+        <v>1676</v>
+      </c>
+      <c r="N163" t="n">
+        <v>1433</v>
+      </c>
+      <c r="O163" t="n">
+        <v>1206</v>
+      </c>
+      <c r="P163" t="n">
+        <v>910</v>
+      </c>
+      <c r="Q163" t="n">
+        <v>801</v>
+      </c>
+      <c r="R163" t="n">
+        <v>636</v>
+      </c>
+      <c r="S163" t="n">
+        <v>583</v>
+      </c>
+      <c r="T163" t="n">
+        <v>500</v>
+      </c>
+      <c r="U163" t="n">
+        <v>397</v>
+      </c>
+      <c r="V163" t="n">
+        <v>383</v>
+      </c>
+      <c r="W163" t="n">
+        <v>4173</v>
+      </c>
+      <c r="X163" t="n">
+        <v>392</v>
+      </c>
+      <c r="Y163" t="n">
+        <v>3305</v>
+      </c>
+      <c r="Z163" t="n">
+        <v>6111</v>
+      </c>
+      <c r="AA163" t="n">
+        <v>8505</v>
+      </c>
+      <c r="AB163" t="n">
+        <v>7051</v>
+      </c>
+      <c r="AC163" t="n">
+        <v>4187</v>
+      </c>
+      <c r="AD163" t="n">
+        <v>3153</v>
+      </c>
+      <c r="AE163" t="n">
+        <v>1858</v>
+      </c>
+      <c r="AF163" t="n">
+        <v>1422</v>
+      </c>
+      <c r="AG163" t="n">
+        <v>4624</v>
+      </c>
+      <c r="AH163" t="n">
+        <v>2080</v>
+      </c>
+      <c r="AI163" t="n">
+        <v>4974</v>
+      </c>
+      <c r="AJ163" t="n">
+        <v>17127</v>
+      </c>
+      <c r="AK163" t="n">
+        <v>13585</v>
+      </c>
+      <c r="AL163" t="n">
+        <v>2464</v>
       </c>
     </row>
   </sheetData>
@@ -19635,7 +19753,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q162"/>
+  <dimension ref="A1:Q163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28585,6 +28703,61 @@
         <v>708</v>
       </c>
     </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>2024-01-09</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>11035</v>
+      </c>
+      <c r="C163" t="n">
+        <v>61</v>
+      </c>
+      <c r="D163" t="n">
+        <v>843</v>
+      </c>
+      <c r="E163" t="n">
+        <v>1693</v>
+      </c>
+      <c r="F163" t="n">
+        <v>2399</v>
+      </c>
+      <c r="G163" t="n">
+        <v>1695</v>
+      </c>
+      <c r="H163" t="n">
+        <v>1048</v>
+      </c>
+      <c r="I163" t="n">
+        <v>830</v>
+      </c>
+      <c r="J163" t="n">
+        <v>527</v>
+      </c>
+      <c r="K163" t="n">
+        <v>415</v>
+      </c>
+      <c r="L163" t="n">
+        <v>1524</v>
+      </c>
+      <c r="M163" t="n">
+        <v>488</v>
+      </c>
+      <c r="N163" t="n">
+        <v>1251</v>
+      </c>
+      <c r="O163" t="n">
+        <v>4880</v>
+      </c>
+      <c r="P163" t="n">
+        <v>3624</v>
+      </c>
+      <c r="Q163" t="n">
+        <v>706</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/中原放盤.xlsx
+++ b/中原放盤.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL172"/>
+  <dimension ref="A1:AL173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20802,6 +20802,124 @@
       </c>
       <c r="AL172" t="n">
         <v>2476</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>2024-01-19</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>40799</v>
+      </c>
+      <c r="C173" t="n">
+        <v>4</v>
+      </c>
+      <c r="D173" t="n">
+        <v>126</v>
+      </c>
+      <c r="E173" t="n">
+        <v>638</v>
+      </c>
+      <c r="F173" t="n">
+        <v>2451</v>
+      </c>
+      <c r="G173" t="n">
+        <v>4836</v>
+      </c>
+      <c r="H173" t="n">
+        <v>5274</v>
+      </c>
+      <c r="I173" t="n">
+        <v>4696</v>
+      </c>
+      <c r="J173" t="n">
+        <v>4007</v>
+      </c>
+      <c r="K173" t="n">
+        <v>3463</v>
+      </c>
+      <c r="L173" t="n">
+        <v>2612</v>
+      </c>
+      <c r="M173" t="n">
+        <v>1674</v>
+      </c>
+      <c r="N173" t="n">
+        <v>1447</v>
+      </c>
+      <c r="O173" t="n">
+        <v>1181</v>
+      </c>
+      <c r="P173" t="n">
+        <v>919</v>
+      </c>
+      <c r="Q173" t="n">
+        <v>799</v>
+      </c>
+      <c r="R173" t="n">
+        <v>636</v>
+      </c>
+      <c r="S173" t="n">
+        <v>589</v>
+      </c>
+      <c r="T173" t="n">
+        <v>496</v>
+      </c>
+      <c r="U173" t="n">
+        <v>389</v>
+      </c>
+      <c r="V173" t="n">
+        <v>373</v>
+      </c>
+      <c r="W173" t="n">
+        <v>4189</v>
+      </c>
+      <c r="X173" t="n">
+        <v>382</v>
+      </c>
+      <c r="Y173" t="n">
+        <v>3330</v>
+      </c>
+      <c r="Z173" t="n">
+        <v>6134</v>
+      </c>
+      <c r="AA173" t="n">
+        <v>8566</v>
+      </c>
+      <c r="AB173" t="n">
+        <v>7084</v>
+      </c>
+      <c r="AC173" t="n">
+        <v>4195</v>
+      </c>
+      <c r="AD173" t="n">
+        <v>11108</v>
+      </c>
+      <c r="AE173" t="n">
+        <v>1870</v>
+      </c>
+      <c r="AF173" t="n">
+        <v>1424</v>
+      </c>
+      <c r="AG173" t="n">
+        <v>4643</v>
+      </c>
+      <c r="AH173" t="n">
+        <v>2087</v>
+      </c>
+      <c r="AI173" t="n">
+        <v>5024</v>
+      </c>
+      <c r="AJ173" t="n">
+        <v>17198</v>
+      </c>
+      <c r="AK173" t="n">
+        <v>13650</v>
+      </c>
+      <c r="AL173" t="n">
+        <v>2471</v>
       </c>
     </row>
   </sheetData>
@@ -20815,7 +20933,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q172"/>
+  <dimension ref="A1:Q173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30315,6 +30433,61 @@
         <v>705</v>
       </c>
     </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>2024-01-19</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>10970</v>
+      </c>
+      <c r="C173" t="n">
+        <v>64</v>
+      </c>
+      <c r="D173" t="n">
+        <v>861</v>
+      </c>
+      <c r="E173" t="n">
+        <v>1648</v>
+      </c>
+      <c r="F173" t="n">
+        <v>2400</v>
+      </c>
+      <c r="G173" t="n">
+        <v>1679</v>
+      </c>
+      <c r="H173" t="n">
+        <v>1024</v>
+      </c>
+      <c r="I173" t="n">
+        <v>838</v>
+      </c>
+      <c r="J173" t="n">
+        <v>524</v>
+      </c>
+      <c r="K173" t="n">
+        <v>420</v>
+      </c>
+      <c r="L173" t="n">
+        <v>1512</v>
+      </c>
+      <c r="M173" t="n">
+        <v>502</v>
+      </c>
+      <c r="N173" t="n">
+        <v>1228</v>
+      </c>
+      <c r="O173" t="n">
+        <v>4845</v>
+      </c>
+      <c r="P173" t="n">
+        <v>3606</v>
+      </c>
+      <c r="Q173" t="n">
+        <v>701</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/中原放盤.xlsx
+++ b/中原放盤.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL173"/>
+  <dimension ref="A1:AL174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20920,6 +20920,124 @@
       </c>
       <c r="AL173" t="n">
         <v>2471</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>2024-01-20</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>40818</v>
+      </c>
+      <c r="C174" t="n">
+        <v>4</v>
+      </c>
+      <c r="D174" t="n">
+        <v>126</v>
+      </c>
+      <c r="E174" t="n">
+        <v>632</v>
+      </c>
+      <c r="F174" t="n">
+        <v>2454</v>
+      </c>
+      <c r="G174" t="n">
+        <v>4841</v>
+      </c>
+      <c r="H174" t="n">
+        <v>5282</v>
+      </c>
+      <c r="I174" t="n">
+        <v>4696</v>
+      </c>
+      <c r="J174" t="n">
+        <v>4013</v>
+      </c>
+      <c r="K174" t="n">
+        <v>3464</v>
+      </c>
+      <c r="L174" t="n">
+        <v>2619</v>
+      </c>
+      <c r="M174" t="n">
+        <v>1670</v>
+      </c>
+      <c r="N174" t="n">
+        <v>1450</v>
+      </c>
+      <c r="O174" t="n">
+        <v>1181</v>
+      </c>
+      <c r="P174" t="n">
+        <v>916</v>
+      </c>
+      <c r="Q174" t="n">
+        <v>797</v>
+      </c>
+      <c r="R174" t="n">
+        <v>640</v>
+      </c>
+      <c r="S174" t="n">
+        <v>584</v>
+      </c>
+      <c r="T174" t="n">
+        <v>495</v>
+      </c>
+      <c r="U174" t="n">
+        <v>390</v>
+      </c>
+      <c r="V174" t="n">
+        <v>379</v>
+      </c>
+      <c r="W174" t="n">
+        <v>4185</v>
+      </c>
+      <c r="X174" t="n">
+        <v>383</v>
+      </c>
+      <c r="Y174" t="n">
+        <v>3326</v>
+      </c>
+      <c r="Z174" t="n">
+        <v>6141</v>
+      </c>
+      <c r="AA174" t="n">
+        <v>8581</v>
+      </c>
+      <c r="AB174" t="n">
+        <v>7084</v>
+      </c>
+      <c r="AC174" t="n">
+        <v>4194</v>
+      </c>
+      <c r="AD174" t="n">
+        <v>3173</v>
+      </c>
+      <c r="AE174" t="n">
+        <v>1866</v>
+      </c>
+      <c r="AF174" t="n">
+        <v>1424</v>
+      </c>
+      <c r="AG174" t="n">
+        <v>4646</v>
+      </c>
+      <c r="AH174" t="n">
+        <v>2090</v>
+      </c>
+      <c r="AI174" t="n">
+        <v>5024</v>
+      </c>
+      <c r="AJ174" t="n">
+        <v>17209</v>
+      </c>
+      <c r="AK174" t="n">
+        <v>13660</v>
+      </c>
+      <c r="AL174" t="n">
+        <v>2466</v>
       </c>
     </row>
   </sheetData>
@@ -20933,7 +21051,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q173"/>
+  <dimension ref="A1:Q174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30488,6 +30606,61 @@
         <v>701</v>
       </c>
     </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>2024-01-20</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>10975</v>
+      </c>
+      <c r="C174" t="n">
+        <v>64</v>
+      </c>
+      <c r="D174" t="n">
+        <v>865</v>
+      </c>
+      <c r="E174" t="n">
+        <v>1638</v>
+      </c>
+      <c r="F174" t="n">
+        <v>2398</v>
+      </c>
+      <c r="G174" t="n">
+        <v>1681</v>
+      </c>
+      <c r="H174" t="n">
+        <v>1032</v>
+      </c>
+      <c r="I174" t="n">
+        <v>837</v>
+      </c>
+      <c r="J174" t="n">
+        <v>528</v>
+      </c>
+      <c r="K174" t="n">
+        <v>423</v>
+      </c>
+      <c r="L174" t="n">
+        <v>1509</v>
+      </c>
+      <c r="M174" t="n">
+        <v>501</v>
+      </c>
+      <c r="N174" t="n">
+        <v>1230</v>
+      </c>
+      <c r="O174" t="n">
+        <v>4845</v>
+      </c>
+      <c r="P174" t="n">
+        <v>3611</v>
+      </c>
+      <c r="Q174" t="n">
+        <v>701</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/中原放盤.xlsx
+++ b/中原放盤.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL181"/>
+  <dimension ref="A1:AL182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21864,6 +21864,124 @@
       </c>
       <c r="AL181" t="n">
         <v>2484</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>2024-01-28</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>40959</v>
+      </c>
+      <c r="C182" t="n">
+        <v>7</v>
+      </c>
+      <c r="D182" t="n">
+        <v>124</v>
+      </c>
+      <c r="E182" t="n">
+        <v>648</v>
+      </c>
+      <c r="F182" t="n">
+        <v>2462</v>
+      </c>
+      <c r="G182" t="n">
+        <v>4855</v>
+      </c>
+      <c r="H182" t="n">
+        <v>5321</v>
+      </c>
+      <c r="I182" t="n">
+        <v>4726</v>
+      </c>
+      <c r="J182" t="n">
+        <v>4005</v>
+      </c>
+      <c r="K182" t="n">
+        <v>3485</v>
+      </c>
+      <c r="L182" t="n">
+        <v>2626</v>
+      </c>
+      <c r="M182" t="n">
+        <v>1650</v>
+      </c>
+      <c r="N182" t="n">
+        <v>1449</v>
+      </c>
+      <c r="O182" t="n">
+        <v>1212</v>
+      </c>
+      <c r="P182" t="n">
+        <v>925</v>
+      </c>
+      <c r="Q182" t="n">
+        <v>789</v>
+      </c>
+      <c r="R182" t="n">
+        <v>641</v>
+      </c>
+      <c r="S182" t="n">
+        <v>585</v>
+      </c>
+      <c r="T182" t="n">
+        <v>497</v>
+      </c>
+      <c r="U182" t="n">
+        <v>392</v>
+      </c>
+      <c r="V182" t="n">
+        <v>372</v>
+      </c>
+      <c r="W182" t="n">
+        <v>4188</v>
+      </c>
+      <c r="X182" t="n">
+        <v>384</v>
+      </c>
+      <c r="Y182" t="n">
+        <v>3348</v>
+      </c>
+      <c r="Z182" t="n">
+        <v>6162</v>
+      </c>
+      <c r="AA182" t="n">
+        <v>8578</v>
+      </c>
+      <c r="AB182" t="n">
+        <v>7131</v>
+      </c>
+      <c r="AC182" t="n">
+        <v>4203</v>
+      </c>
+      <c r="AD182" t="n">
+        <v>3198</v>
+      </c>
+      <c r="AE182" t="n">
+        <v>1890</v>
+      </c>
+      <c r="AF182" t="n">
+        <v>1431</v>
+      </c>
+      <c r="AG182" t="n">
+        <v>4634</v>
+      </c>
+      <c r="AH182" t="n">
+        <v>2097</v>
+      </c>
+      <c r="AI182" t="n">
+        <v>5043</v>
+      </c>
+      <c r="AJ182" t="n">
+        <v>17260</v>
+      </c>
+      <c r="AK182" t="n">
+        <v>40959</v>
+      </c>
+      <c r="AL182" t="n">
+        <v>2485</v>
       </c>
     </row>
   </sheetData>
@@ -21877,7 +21995,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q181"/>
+  <dimension ref="A1:Q182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31872,6 +31990,61 @@
         <v>700</v>
       </c>
     </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>2024-01-28</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>10805</v>
+      </c>
+      <c r="C182" t="n">
+        <v>60</v>
+      </c>
+      <c r="D182" t="n">
+        <v>861</v>
+      </c>
+      <c r="E182" t="n">
+        <v>1606</v>
+      </c>
+      <c r="F182" t="n">
+        <v>2360</v>
+      </c>
+      <c r="G182" t="n">
+        <v>1651</v>
+      </c>
+      <c r="H182" t="n">
+        <v>1006</v>
+      </c>
+      <c r="I182" t="n">
+        <v>816</v>
+      </c>
+      <c r="J182" t="n">
+        <v>514</v>
+      </c>
+      <c r="K182" t="n">
+        <v>416</v>
+      </c>
+      <c r="L182" t="n">
+        <v>1514</v>
+      </c>
+      <c r="M182" t="n">
+        <v>478</v>
+      </c>
+      <c r="N182" t="n">
+        <v>1228</v>
+      </c>
+      <c r="O182" t="n">
+        <v>4769</v>
+      </c>
+      <c r="P182" t="n">
+        <v>3558</v>
+      </c>
+      <c r="Q182" t="n">
+        <v>700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/中原放盤.xlsx
+++ b/中原放盤.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL183"/>
+  <dimension ref="A1:AL184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22100,6 +22100,124 @@
       </c>
       <c r="AL183" t="n">
         <v>2491</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>2024-01-30</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>41083</v>
+      </c>
+      <c r="C184" t="n">
+        <v>4</v>
+      </c>
+      <c r="D184" t="n">
+        <v>124</v>
+      </c>
+      <c r="E184" t="n">
+        <v>662</v>
+      </c>
+      <c r="F184" t="n">
+        <v>2465</v>
+      </c>
+      <c r="G184" t="n">
+        <v>4891</v>
+      </c>
+      <c r="H184" t="n">
+        <v>5328</v>
+      </c>
+      <c r="I184" t="n">
+        <v>4727</v>
+      </c>
+      <c r="J184" t="n">
+        <v>4026</v>
+      </c>
+      <c r="K184" t="n">
+        <v>3487</v>
+      </c>
+      <c r="L184" t="n">
+        <v>2623</v>
+      </c>
+      <c r="M184" t="n">
+        <v>1658</v>
+      </c>
+      <c r="N184" t="n">
+        <v>1458</v>
+      </c>
+      <c r="O184" t="n">
+        <v>1211</v>
+      </c>
+      <c r="P184" t="n">
+        <v>930</v>
+      </c>
+      <c r="Q184" t="n">
+        <v>798</v>
+      </c>
+      <c r="R184" t="n">
+        <v>643</v>
+      </c>
+      <c r="S184" t="n">
+        <v>582</v>
+      </c>
+      <c r="T184" t="n">
+        <v>501</v>
+      </c>
+      <c r="U184" t="n">
+        <v>391</v>
+      </c>
+      <c r="V184" t="n">
+        <v>374</v>
+      </c>
+      <c r="W184" t="n">
+        <v>4200</v>
+      </c>
+      <c r="X184" t="n">
+        <v>383</v>
+      </c>
+      <c r="Y184" t="n">
+        <v>3352</v>
+      </c>
+      <c r="Z184" t="n">
+        <v>6184</v>
+      </c>
+      <c r="AA184" t="n">
+        <v>8598</v>
+      </c>
+      <c r="AB184" t="n">
+        <v>7162</v>
+      </c>
+      <c r="AC184" t="n">
+        <v>4220</v>
+      </c>
+      <c r="AD184" t="n">
+        <v>3207</v>
+      </c>
+      <c r="AE184" t="n">
+        <v>1894</v>
+      </c>
+      <c r="AF184" t="n">
+        <v>1438</v>
+      </c>
+      <c r="AG184" t="n">
+        <v>4645</v>
+      </c>
+      <c r="AH184" t="n">
+        <v>2100</v>
+      </c>
+      <c r="AI184" t="n">
+        <v>5062</v>
+      </c>
+      <c r="AJ184" t="n">
+        <v>17320</v>
+      </c>
+      <c r="AK184" t="n">
+        <v>13782</v>
+      </c>
+      <c r="AL184" t="n">
+        <v>2492</v>
       </c>
     </row>
   </sheetData>
@@ -22113,7 +22231,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q183"/>
+  <dimension ref="A1:Q184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32218,6 +32336,61 @@
         <v>703</v>
       </c>
     </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>2024-01-30</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>10893</v>
+      </c>
+      <c r="C184" t="n">
+        <v>62</v>
+      </c>
+      <c r="D184" t="n">
+        <v>10830</v>
+      </c>
+      <c r="E184" t="n">
+        <v>1620</v>
+      </c>
+      <c r="F184" t="n">
+        <v>2382</v>
+      </c>
+      <c r="G184" t="n">
+        <v>1675</v>
+      </c>
+      <c r="H184" t="n">
+        <v>1016</v>
+      </c>
+      <c r="I184" t="n">
+        <v>814</v>
+      </c>
+      <c r="J184" t="n">
+        <v>514</v>
+      </c>
+      <c r="K184" t="n">
+        <v>424</v>
+      </c>
+      <c r="L184" t="n">
+        <v>1516</v>
+      </c>
+      <c r="M184" t="n">
+        <v>492</v>
+      </c>
+      <c r="N184" t="n">
+        <v>1236</v>
+      </c>
+      <c r="O184" t="n">
+        <v>4817</v>
+      </c>
+      <c r="P184" t="n">
+        <v>3568</v>
+      </c>
+      <c r="Q184" t="n">
+        <v>709</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/中原放盤.xlsx
+++ b/中原放盤.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL189"/>
+  <dimension ref="A1:AL190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22808,6 +22808,124 @@
       </c>
       <c r="AL189" t="n">
         <v>2492</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>41054</v>
+      </c>
+      <c r="C190" t="n">
+        <v>4</v>
+      </c>
+      <c r="D190" t="n">
+        <v>127</v>
+      </c>
+      <c r="E190" t="n">
+        <v>660</v>
+      </c>
+      <c r="F190" t="n">
+        <v>2498</v>
+      </c>
+      <c r="G190" t="n">
+        <v>4888</v>
+      </c>
+      <c r="H190" t="n">
+        <v>5343</v>
+      </c>
+      <c r="I190" t="n">
+        <v>27531</v>
+      </c>
+      <c r="J190" t="n">
+        <v>4026</v>
+      </c>
+      <c r="K190" t="n">
+        <v>3485</v>
+      </c>
+      <c r="L190" t="n">
+        <v>2611</v>
+      </c>
+      <c r="M190" t="n">
+        <v>1643</v>
+      </c>
+      <c r="N190" t="n">
+        <v>1475</v>
+      </c>
+      <c r="O190" t="n">
+        <v>1211</v>
+      </c>
+      <c r="P190" t="n">
+        <v>925</v>
+      </c>
+      <c r="Q190" t="n">
+        <v>793</v>
+      </c>
+      <c r="R190" t="n">
+        <v>627</v>
+      </c>
+      <c r="S190" t="n">
+        <v>591</v>
+      </c>
+      <c r="T190" t="n">
+        <v>497</v>
+      </c>
+      <c r="U190" t="n">
+        <v>393</v>
+      </c>
+      <c r="V190" t="n">
+        <v>377</v>
+      </c>
+      <c r="W190" t="n">
+        <v>4181</v>
+      </c>
+      <c r="X190" t="n">
+        <v>381</v>
+      </c>
+      <c r="Y190" t="n">
+        <v>3325</v>
+      </c>
+      <c r="Z190" t="n">
+        <v>6208</v>
+      </c>
+      <c r="AA190" t="n">
+        <v>8603</v>
+      </c>
+      <c r="AB190" t="n">
+        <v>7175</v>
+      </c>
+      <c r="AC190" t="n">
+        <v>4189</v>
+      </c>
+      <c r="AD190" t="n">
+        <v>3209</v>
+      </c>
+      <c r="AE190" t="n">
+        <v>1893</v>
+      </c>
+      <c r="AF190" t="n">
+        <v>1441</v>
+      </c>
+      <c r="AG190" t="n">
+        <v>4630</v>
+      </c>
+      <c r="AH190" t="n">
+        <v>2094</v>
+      </c>
+      <c r="AI190" t="n">
+        <v>5058</v>
+      </c>
+      <c r="AJ190" t="n">
+        <v>17323</v>
+      </c>
+      <c r="AK190" t="n">
+        <v>13769</v>
+      </c>
+      <c r="AL190" t="n">
+        <v>2493</v>
       </c>
     </row>
   </sheetData>
@@ -22821,7 +22939,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q189"/>
+  <dimension ref="A1:Q190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33256,6 +33374,61 @@
         <v>704</v>
       </c>
     </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>10837</v>
+      </c>
+      <c r="C190" t="n">
+        <v>59</v>
+      </c>
+      <c r="D190" t="n">
+        <v>853</v>
+      </c>
+      <c r="E190" t="n">
+        <v>1622</v>
+      </c>
+      <c r="F190" t="n">
+        <v>2340</v>
+      </c>
+      <c r="G190" t="n">
+        <v>1678</v>
+      </c>
+      <c r="H190" t="n">
+        <v>1022</v>
+      </c>
+      <c r="I190" t="n">
+        <v>818</v>
+      </c>
+      <c r="J190" t="n">
+        <v>528</v>
+      </c>
+      <c r="K190" t="n">
+        <v>411</v>
+      </c>
+      <c r="L190" t="n">
+        <v>1506</v>
+      </c>
+      <c r="M190" t="n">
+        <v>488</v>
+      </c>
+      <c r="N190" t="n">
+        <v>1237</v>
+      </c>
+      <c r="O190" t="n">
+        <v>4770</v>
+      </c>
+      <c r="P190" t="n">
+        <v>3568</v>
+      </c>
+      <c r="Q190" t="n">
+        <v>707</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/中原放盤.xlsx
+++ b/中原放盤.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL190"/>
+  <dimension ref="A1:AL191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22926,6 +22926,124 @@
       </c>
       <c r="AL190" t="n">
         <v>2493</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>2024-02-06</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>41050</v>
+      </c>
+      <c r="C191" t="n">
+        <v>4</v>
+      </c>
+      <c r="D191" t="n">
+        <v>126</v>
+      </c>
+      <c r="E191" t="n">
+        <v>662</v>
+      </c>
+      <c r="F191" t="n">
+        <v>2505</v>
+      </c>
+      <c r="G191" t="n">
+        <v>4876</v>
+      </c>
+      <c r="H191" t="n">
+        <v>5331</v>
+      </c>
+      <c r="I191" t="n">
+        <v>4708</v>
+      </c>
+      <c r="J191" t="n">
+        <v>4019</v>
+      </c>
+      <c r="K191" t="n">
+        <v>3480</v>
+      </c>
+      <c r="L191" t="n">
+        <v>2617</v>
+      </c>
+      <c r="M191" t="n">
+        <v>1638</v>
+      </c>
+      <c r="N191" t="n">
+        <v>1473</v>
+      </c>
+      <c r="O191" t="n">
+        <v>1213</v>
+      </c>
+      <c r="P191" t="n">
+        <v>916</v>
+      </c>
+      <c r="Q191" t="n">
+        <v>792</v>
+      </c>
+      <c r="R191" t="n">
+        <v>633</v>
+      </c>
+      <c r="S191" t="n">
+        <v>593</v>
+      </c>
+      <c r="T191" t="n">
+        <v>504</v>
+      </c>
+      <c r="U191" t="n">
+        <v>393</v>
+      </c>
+      <c r="V191" t="n">
+        <v>378</v>
+      </c>
+      <c r="W191" t="n">
+        <v>4186</v>
+      </c>
+      <c r="X191" t="n">
+        <v>381</v>
+      </c>
+      <c r="Y191" t="n">
+        <v>3326</v>
+      </c>
+      <c r="Z191" t="n">
+        <v>6200</v>
+      </c>
+      <c r="AA191" t="n">
+        <v>8601</v>
+      </c>
+      <c r="AB191" t="n">
+        <v>7169</v>
+      </c>
+      <c r="AC191" t="n">
+        <v>4191</v>
+      </c>
+      <c r="AD191" t="n">
+        <v>3215</v>
+      </c>
+      <c r="AE191" t="n">
+        <v>1887</v>
+      </c>
+      <c r="AF191" t="n">
+        <v>1437</v>
+      </c>
+      <c r="AG191" t="n">
+        <v>4643</v>
+      </c>
+      <c r="AH191" t="n">
+        <v>2097</v>
+      </c>
+      <c r="AI191" t="n">
+        <v>5056</v>
+      </c>
+      <c r="AJ191" t="n">
+        <v>17317</v>
+      </c>
+      <c r="AK191" t="n">
+        <v>13769</v>
+      </c>
+      <c r="AL191" t="n">
+        <v>2496</v>
       </c>
     </row>
   </sheetData>
@@ -22939,7 +23057,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q190"/>
+  <dimension ref="A1:Q191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33429,6 +33547,61 @@
         <v>707</v>
       </c>
     </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>2024-02-06</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>10779</v>
+      </c>
+      <c r="C191" t="n">
+        <v>59</v>
+      </c>
+      <c r="D191" t="n">
+        <v>842</v>
+      </c>
+      <c r="E191" t="n">
+        <v>1604</v>
+      </c>
+      <c r="F191" t="n">
+        <v>2317</v>
+      </c>
+      <c r="G191" t="n">
+        <v>1669</v>
+      </c>
+      <c r="H191" t="n">
+        <v>1014</v>
+      </c>
+      <c r="I191" t="n">
+        <v>3274</v>
+      </c>
+      <c r="J191" t="n">
+        <v>525</v>
+      </c>
+      <c r="K191" t="n">
+        <v>415</v>
+      </c>
+      <c r="L191" t="n">
+        <v>1518</v>
+      </c>
+      <c r="M191" t="n">
+        <v>481</v>
+      </c>
+      <c r="N191" t="n">
+        <v>1233</v>
+      </c>
+      <c r="O191" t="n">
+        <v>4718</v>
+      </c>
+      <c r="P191" t="n">
+        <v>3568</v>
+      </c>
+      <c r="Q191" t="n">
+        <v>712</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/中原放盤.xlsx
+++ b/中原放盤.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL193"/>
+  <dimension ref="A1:AL194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23280,6 +23280,124 @@
       </c>
       <c r="AL193" t="n">
         <v>2495</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>2024-02-09</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>41010</v>
+      </c>
+      <c r="C194" t="n">
+        <v>4</v>
+      </c>
+      <c r="D194" t="n">
+        <v>128</v>
+      </c>
+      <c r="E194" t="n">
+        <v>667</v>
+      </c>
+      <c r="F194" t="n">
+        <v>2521</v>
+      </c>
+      <c r="G194" t="n">
+        <v>4865</v>
+      </c>
+      <c r="H194" t="n">
+        <v>5317</v>
+      </c>
+      <c r="I194" t="n">
+        <v>4711</v>
+      </c>
+      <c r="J194" t="n">
+        <v>4024</v>
+      </c>
+      <c r="K194" t="n">
+        <v>3453</v>
+      </c>
+      <c r="L194" t="n">
+        <v>2605</v>
+      </c>
+      <c r="M194" t="n">
+        <v>1646</v>
+      </c>
+      <c r="N194" t="n">
+        <v>1460</v>
+      </c>
+      <c r="O194" t="n">
+        <v>1210</v>
+      </c>
+      <c r="P194" t="n">
+        <v>917</v>
+      </c>
+      <c r="Q194" t="n">
+        <v>791</v>
+      </c>
+      <c r="R194" t="n">
+        <v>634</v>
+      </c>
+      <c r="S194" t="n">
+        <v>592</v>
+      </c>
+      <c r="T194" t="n">
+        <v>504</v>
+      </c>
+      <c r="U194" t="n">
+        <v>390</v>
+      </c>
+      <c r="V194" t="n">
+        <v>380</v>
+      </c>
+      <c r="W194" t="n">
+        <v>4188</v>
+      </c>
+      <c r="X194" t="n">
+        <v>383</v>
+      </c>
+      <c r="Y194" t="n">
+        <v>3317</v>
+      </c>
+      <c r="Z194" t="n">
+        <v>6192</v>
+      </c>
+      <c r="AA194" t="n">
+        <v>8596</v>
+      </c>
+      <c r="AB194" t="n">
+        <v>7167</v>
+      </c>
+      <c r="AC194" t="n">
+        <v>4189</v>
+      </c>
+      <c r="AD194" t="n">
+        <v>3208</v>
+      </c>
+      <c r="AE194" t="n">
+        <v>1880</v>
+      </c>
+      <c r="AF194" t="n">
+        <v>1437</v>
+      </c>
+      <c r="AG194" t="n">
+        <v>4641</v>
+      </c>
+      <c r="AH194" t="n">
+        <v>2094</v>
+      </c>
+      <c r="AI194" t="n">
+        <v>5054</v>
+      </c>
+      <c r="AJ194" t="n">
+        <v>17304</v>
+      </c>
+      <c r="AK194" t="n">
+        <v>13755</v>
+      </c>
+      <c r="AL194" t="n">
+        <v>2493</v>
       </c>
     </row>
   </sheetData>
@@ -23293,7 +23411,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q193"/>
+  <dimension ref="A1:Q194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33948,6 +34066,61 @@
         <v>705</v>
       </c>
     </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>2024-02-09</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>10709</v>
+      </c>
+      <c r="C194" t="n">
+        <v>58</v>
+      </c>
+      <c r="D194" t="n">
+        <v>823</v>
+      </c>
+      <c r="E194" t="n">
+        <v>1615</v>
+      </c>
+      <c r="F194" t="n">
+        <v>2284</v>
+      </c>
+      <c r="G194" t="n">
+        <v>1663</v>
+      </c>
+      <c r="H194" t="n">
+        <v>1006</v>
+      </c>
+      <c r="I194" t="n">
+        <v>805</v>
+      </c>
+      <c r="J194" t="n">
+        <v>523</v>
+      </c>
+      <c r="K194" t="n">
+        <v>420</v>
+      </c>
+      <c r="L194" t="n">
+        <v>1511</v>
+      </c>
+      <c r="M194" t="n">
+        <v>481</v>
+      </c>
+      <c r="N194" t="n">
+        <v>1218</v>
+      </c>
+      <c r="O194" t="n">
+        <v>4681</v>
+      </c>
+      <c r="P194" t="n">
+        <v>3561</v>
+      </c>
+      <c r="Q194" t="n">
+        <v>706</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/中原放盤.xlsx
+++ b/中原放盤.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL199"/>
+  <dimension ref="A1:AL200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23988,6 +23988,124 @@
       </c>
       <c r="AL199" t="n">
         <v>2477</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>2024-02-15</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>40757</v>
+      </c>
+      <c r="C200" t="n">
+        <v>4</v>
+      </c>
+      <c r="D200" t="n">
+        <v>130</v>
+      </c>
+      <c r="E200" t="n">
+        <v>661</v>
+      </c>
+      <c r="F200" t="n">
+        <v>2508</v>
+      </c>
+      <c r="G200" t="n">
+        <v>4842</v>
+      </c>
+      <c r="H200" t="n">
+        <v>5270</v>
+      </c>
+      <c r="I200" t="n">
+        <v>4678</v>
+      </c>
+      <c r="J200" t="n">
+        <v>4021</v>
+      </c>
+      <c r="K200" t="n">
+        <v>3424</v>
+      </c>
+      <c r="L200" t="n">
+        <v>2591</v>
+      </c>
+      <c r="M200" t="n">
+        <v>1645</v>
+      </c>
+      <c r="N200" t="n">
+        <v>1447</v>
+      </c>
+      <c r="O200" t="n">
+        <v>1192</v>
+      </c>
+      <c r="P200" t="n">
+        <v>920</v>
+      </c>
+      <c r="Q200" t="n">
+        <v>792</v>
+      </c>
+      <c r="R200" t="n">
+        <v>626</v>
+      </c>
+      <c r="S200" t="n">
+        <v>596</v>
+      </c>
+      <c r="T200" t="n">
+        <v>499</v>
+      </c>
+      <c r="U200" t="n">
+        <v>381</v>
+      </c>
+      <c r="V200" t="n">
+        <v>374</v>
+      </c>
+      <c r="W200" t="n">
+        <v>4152</v>
+      </c>
+      <c r="X200" t="n">
+        <v>384</v>
+      </c>
+      <c r="Y200" t="n">
+        <v>3279</v>
+      </c>
+      <c r="Z200" t="n">
+        <v>6149</v>
+      </c>
+      <c r="AA200" t="n">
+        <v>8543</v>
+      </c>
+      <c r="AB200" t="n">
+        <v>7147</v>
+      </c>
+      <c r="AC200" t="n">
+        <v>4155</v>
+      </c>
+      <c r="AD200" t="n">
+        <v>3201</v>
+      </c>
+      <c r="AE200" t="n">
+        <v>1866</v>
+      </c>
+      <c r="AF200" t="n">
+        <v>1428</v>
+      </c>
+      <c r="AG200" t="n">
+        <v>4605</v>
+      </c>
+      <c r="AH200" t="n">
+        <v>2077</v>
+      </c>
+      <c r="AI200" t="n">
+        <v>5025</v>
+      </c>
+      <c r="AJ200" t="n">
+        <v>17180</v>
+      </c>
+      <c r="AK200" t="n">
+        <v>13696</v>
+      </c>
+      <c r="AL200" t="n">
+        <v>2476</v>
       </c>
     </row>
   </sheetData>
@@ -24001,7 +24119,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q199"/>
+  <dimension ref="A1:Q200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34986,6 +35104,61 @@
         <v>698</v>
       </c>
     </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>2024-02-15</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>10655</v>
+      </c>
+      <c r="C200" t="n">
+        <v>62</v>
+      </c>
+      <c r="D200" t="n">
+        <v>814</v>
+      </c>
+      <c r="E200" t="n">
+        <v>1612</v>
+      </c>
+      <c r="F200" t="n">
+        <v>2273</v>
+      </c>
+      <c r="G200" t="n">
+        <v>1657</v>
+      </c>
+      <c r="H200" t="n">
+        <v>997</v>
+      </c>
+      <c r="I200" t="n">
+        <v>804</v>
+      </c>
+      <c r="J200" t="n">
+        <v>521</v>
+      </c>
+      <c r="K200" t="n">
+        <v>413</v>
+      </c>
+      <c r="L200" t="n">
+        <v>1501</v>
+      </c>
+      <c r="M200" t="n">
+        <v>483</v>
+      </c>
+      <c r="N200" t="n">
+        <v>1215</v>
+      </c>
+      <c r="O200" t="n">
+        <v>4655</v>
+      </c>
+      <c r="P200" t="n">
+        <v>3550</v>
+      </c>
+      <c r="Q200" t="n">
+        <v>698</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/中原放盤.xlsx
+++ b/中原放盤.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL203"/>
+  <dimension ref="A1:AL204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24460,6 +24460,124 @@
       </c>
       <c r="AL203" t="n">
         <v>2474</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>2024-02-19</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>40773</v>
+      </c>
+      <c r="C204" t="n">
+        <v>4</v>
+      </c>
+      <c r="D204" t="n">
+        <v>133</v>
+      </c>
+      <c r="E204" t="n">
+        <v>663</v>
+      </c>
+      <c r="F204" t="n">
+        <v>2519</v>
+      </c>
+      <c r="G204" t="n">
+        <v>4862</v>
+      </c>
+      <c r="H204" t="n">
+        <v>5284</v>
+      </c>
+      <c r="I204" t="n">
+        <v>4675</v>
+      </c>
+      <c r="J204" t="n">
+        <v>4023</v>
+      </c>
+      <c r="K204" t="n">
+        <v>3429</v>
+      </c>
+      <c r="L204" t="n">
+        <v>2603</v>
+      </c>
+      <c r="M204" t="n">
+        <v>1627</v>
+      </c>
+      <c r="N204" t="n">
+        <v>1441</v>
+      </c>
+      <c r="O204" t="n">
+        <v>1187</v>
+      </c>
+      <c r="P204" t="n">
+        <v>922</v>
+      </c>
+      <c r="Q204" t="n">
+        <v>779</v>
+      </c>
+      <c r="R204" t="n">
+        <v>627</v>
+      </c>
+      <c r="S204" t="n">
+        <v>593</v>
+      </c>
+      <c r="T204" t="n">
+        <v>496</v>
+      </c>
+      <c r="U204" t="n">
+        <v>385</v>
+      </c>
+      <c r="V204" t="n">
+        <v>368</v>
+      </c>
+      <c r="W204" t="n">
+        <v>4151</v>
+      </c>
+      <c r="X204" t="n">
+        <v>384</v>
+      </c>
+      <c r="Y204" t="n">
+        <v>3282</v>
+      </c>
+      <c r="Z204" t="n">
+        <v>6150</v>
+      </c>
+      <c r="AA204" t="n">
+        <v>8538</v>
+      </c>
+      <c r="AB204" t="n">
+        <v>7151</v>
+      </c>
+      <c r="AC204" t="n">
+        <v>4177</v>
+      </c>
+      <c r="AD204" t="n">
+        <v>3201</v>
+      </c>
+      <c r="AE204" t="n">
+        <v>1863</v>
+      </c>
+      <c r="AF204" t="n">
+        <v>1423</v>
+      </c>
+      <c r="AG204" t="n">
+        <v>4604</v>
+      </c>
+      <c r="AH204" t="n">
+        <v>2069</v>
+      </c>
+      <c r="AI204" t="n">
+        <v>5039</v>
+      </c>
+      <c r="AJ204" t="n">
+        <v>17174</v>
+      </c>
+      <c r="AK204" t="n">
+        <v>13728</v>
+      </c>
+      <c r="AL204" t="n">
+        <v>2467</v>
       </c>
     </row>
   </sheetData>
@@ -24473,7 +24591,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q203"/>
+  <dimension ref="A1:Q204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35678,6 +35796,61 @@
         <v>702</v>
       </c>
     </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>2024-02-19</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>10697</v>
+      </c>
+      <c r="C204" t="n">
+        <v>64</v>
+      </c>
+      <c r="D204" t="n">
+        <v>828</v>
+      </c>
+      <c r="E204" t="n">
+        <v>1621</v>
+      </c>
+      <c r="F204" t="n">
+        <v>2286</v>
+      </c>
+      <c r="G204" t="n">
+        <v>1658</v>
+      </c>
+      <c r="H204" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I204" t="n">
+        <v>815</v>
+      </c>
+      <c r="J204" t="n">
+        <v>517</v>
+      </c>
+      <c r="K204" t="n">
+        <v>415</v>
+      </c>
+      <c r="L204" t="n">
+        <v>1493</v>
+      </c>
+      <c r="M204" t="n">
+        <v>480</v>
+      </c>
+      <c r="N204" t="n">
+        <v>1226</v>
+      </c>
+      <c r="O204" t="n">
+        <v>4682</v>
+      </c>
+      <c r="P204" t="n">
+        <v>3552</v>
+      </c>
+      <c r="Q204" t="n">
+        <v>702</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/中原放盤.xlsx
+++ b/中原放盤.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL227"/>
+  <dimension ref="A1:AL228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27292,6 +27292,124 @@
       </c>
       <c r="AL227" t="n">
         <v>2469</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>41453</v>
+      </c>
+      <c r="C228" t="n">
+        <v>4</v>
+      </c>
+      <c r="D228" t="n">
+        <v>148</v>
+      </c>
+      <c r="E228" t="n">
+        <v>681</v>
+      </c>
+      <c r="F228" t="n">
+        <v>2659</v>
+      </c>
+      <c r="G228" t="n">
+        <v>4966</v>
+      </c>
+      <c r="H228" t="n">
+        <v>5316</v>
+      </c>
+      <c r="I228" t="n">
+        <v>4720</v>
+      </c>
+      <c r="J228" t="n">
+        <v>4100</v>
+      </c>
+      <c r="K228" t="n">
+        <v>3454</v>
+      </c>
+      <c r="L228" t="n">
+        <v>2659</v>
+      </c>
+      <c r="M228" t="n">
+        <v>1629</v>
+      </c>
+      <c r="N228" t="n">
+        <v>1476</v>
+      </c>
+      <c r="O228" t="n">
+        <v>1166</v>
+      </c>
+      <c r="P228" t="n">
+        <v>934</v>
+      </c>
+      <c r="Q228" t="n">
+        <v>810</v>
+      </c>
+      <c r="R228" t="n">
+        <v>640</v>
+      </c>
+      <c r="S228" t="n">
+        <v>600</v>
+      </c>
+      <c r="T228" t="n">
+        <v>493</v>
+      </c>
+      <c r="U228" t="n">
+        <v>386</v>
+      </c>
+      <c r="V228" t="n">
+        <v>375</v>
+      </c>
+      <c r="W228" t="n">
+        <v>4223</v>
+      </c>
+      <c r="X228" t="n">
+        <v>398</v>
+      </c>
+      <c r="Y228" t="n">
+        <v>3383</v>
+      </c>
+      <c r="Z228" t="n">
+        <v>6253</v>
+      </c>
+      <c r="AA228" t="n">
+        <v>8637</v>
+      </c>
+      <c r="AB228" t="n">
+        <v>7265</v>
+      </c>
+      <c r="AC228" t="n">
+        <v>4248</v>
+      </c>
+      <c r="AD228" t="n">
+        <v>3250</v>
+      </c>
+      <c r="AE228" t="n">
+        <v>1904</v>
+      </c>
+      <c r="AF228" t="n">
+        <v>6115</v>
+      </c>
+      <c r="AG228" t="n">
+        <v>4678</v>
+      </c>
+      <c r="AH228" t="n">
+        <v>2454</v>
+      </c>
+      <c r="AI228" t="n">
+        <v>5106</v>
+      </c>
+      <c r="AJ228" t="n">
+        <v>17319</v>
+      </c>
+      <c r="AK228" t="n">
+        <v>13800</v>
+      </c>
+      <c r="AL228" t="n">
+        <v>2472</v>
       </c>
     </row>
   </sheetData>
@@ -27305,7 +27423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q227"/>
+  <dimension ref="A1:Q228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39830,6 +39948,61 @@
         <v>691</v>
       </c>
     </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>10617</v>
+      </c>
+      <c r="C228" t="n">
+        <v>68</v>
+      </c>
+      <c r="D228" t="n">
+        <v>840</v>
+      </c>
+      <c r="E228" t="n">
+        <v>1628</v>
+      </c>
+      <c r="F228" t="n">
+        <v>2287</v>
+      </c>
+      <c r="G228" t="n">
+        <v>1652</v>
+      </c>
+      <c r="H228" t="n">
+        <v>965</v>
+      </c>
+      <c r="I228" t="n">
+        <v>803</v>
+      </c>
+      <c r="J228" t="n">
+        <v>493</v>
+      </c>
+      <c r="K228" t="n">
+        <v>381</v>
+      </c>
+      <c r="L228" t="n">
+        <v>1500</v>
+      </c>
+      <c r="M228" t="n">
+        <v>601</v>
+      </c>
+      <c r="N228" t="n">
+        <v>1219</v>
+      </c>
+      <c r="O228" t="n">
+        <v>4644</v>
+      </c>
+      <c r="P228" t="n">
+        <v>3413</v>
+      </c>
+      <c r="Q228" t="n">
+        <v>694</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
